--- a/biology/Botanique/Laitue_des_vignes/Laitue_des_vignes.xlsx
+++ b/biology/Botanique/Laitue_des_vignes/Laitue_des_vignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactuca viminea
 La Laitue des vignes, Laitue effilée ou Laitue osier (Lactuca viminea), est une espèce de plante à fleurs appartenant au genre Lactuca et à la famille des Astéracées (ancien nom Composées), surtout méditerranéenne.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">plante bisannuelle ou vivace, le plus souvent de petite taille.
 (sous-espèce ramosissima)
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(sous-espèce ramosissima)
 Organes reproducteurs :
@@ -588,7 +604,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lactuca viminea (L.) J.Presl &amp; C.Presl subsp. chondrilliflora (Boreau) Bonnier
 Lactuca viminea (L.) J.Presl &amp; C.Presl subsp. ramosissima (All.) Arcang.
@@ -620,9 +638,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France, elle est classée comme non préoccupante [1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France, elle est classée comme non préoccupante .
 </t>
         </is>
       </c>
@@ -653,16 +673,55 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parasites
-Lactuca viminea est une plante hôte pour des insectes Cynipidae comme Timaspis phœnixopodos qui provoquent des galles[2]. Ces galles attirent des insectes parasitoïdes de la famille des Eupelmidae, des Eurytomidae, des Torymidae ou des Pteromalidae. Ces hyménoptères sont des parasitoïdes des mouches Tephritidae et sont susceptibles de s'attaquer à la Mouche de l'olive (Bactrocera olea).
-D'autres insectes, des diptères de la famille des Tephritidae pondent dans les inflorescences ou capitules, plus spécialement dans les involucres des fleurons. Ce sont[3] :
+          <t>Parasites</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lactuca viminea est une plante hôte pour des insectes Cynipidae comme Timaspis phœnixopodos qui provoquent des galles. Ces galles attirent des insectes parasitoïdes de la famille des Eupelmidae, des Eurytomidae, des Torymidae ou des Pteromalidae. Ces hyménoptères sont des parasitoïdes des mouches Tephritidae et sont susceptibles de s'attaquer à la Mouche de l'olive (Bactrocera olea).
+D'autres insectes, des diptères de la famille des Tephritidae pondent dans les inflorescences ou capitules, plus spécialement dans les involucres des fleurons. Ce sont :
 Capitites ramulosa,
 Tephritis divisa,
 Hypenidium graecum,
 Ensina sonchi,
-Oxyaciura tibialis.
-Parasitoïdes
-Tous ces parasites attirent d'autres insectes parasitoïdes comme :
+Oxyaciura tibialis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laitue_des_vignes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laitue_des_vignes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Interactions écologiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Parasitoïdes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous ces parasites attirent d'autres insectes parasitoïdes comme :
 Eupelmidae :
 Eupelmus confusus.
 Eurytomidae :
@@ -675,9 +734,44 @@
 Aprostocetus sp.
 Braconidae :
 Orthopelma mediator.
-Ces divers insectes sont aussi des parasitoides de la mouche de l'olive. Il est recommandé, en oléiculture utilisant la lutte biologique, d'introduire la laitue des vignes à partir de plantules récoltées dans le sable des rivières ou de faire germer les graines (akènes) récoltés sur les inflorescences de l'année précédente[4].
-Autres plantes utiles en oléiculture
-Asphodèles :
+Ces divers insectes sont aussi des parasitoides de la mouche de l'olive. Il est recommandé, en oléiculture utilisant la lutte biologique, d'introduire la laitue des vignes à partir de plantules récoltées dans le sable des rivières ou de faire germer les graines (akènes) récoltés sur les inflorescences de l'année précédente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laitue_des_vignes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laitue_des_vignes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Interactions écologiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres plantes utiles en oléiculture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Asphodèles :
 Asphodelus ramosus,
 Asphodelus fistulosus,
 Asphodelus cerasiferus.
@@ -690,31 +784,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Laitue_des_vignes</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Laitue_des_vignes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
